--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\!Fall 2020\Design Proj 388\Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{71F964C0-B6D5-4012-B0D9-5B684D4C958B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139CA118-F872-463F-B23C-7DFEA5DCFBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="-60" windowWidth="21600" windowHeight="11505"/>
+    <workbookView xWindow="7200" yWindow="3360" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="274">
   <si>
     <t>Qty</t>
   </si>
@@ -364,9 +364,6 @@
     <t>U57X32</t>
   </si>
   <si>
-    <t>GREEN, GREEN_1, GREEN_2, RED, RED_1, RED_2, RED_3, YELLOW, YELLOW_1, YELLOW_2, YELLOW_3</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -704,12 +701,153 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/molex/1050170001/2350885</t>
+  </si>
+  <si>
+    <t>U254-051T-4BH83-F1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	U254-051T-4BH83-F1B</t>
+  </si>
+  <si>
+    <t>LCSC Part #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCSC Manufacturere </t>
+  </si>
+  <si>
+    <t>LCSC Manufacturer Part #</t>
+  </si>
+  <si>
+    <t>LCSC Cost</t>
+  </si>
+  <si>
+    <t>LCSC URL</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/USB-Connectors_XKB-Connectivity-U254-051T-4BH83-F1B_C319162.html</t>
+  </si>
+  <si>
+    <t>C319162</t>
+  </si>
+  <si>
+    <t>XKB Connectivity</t>
+  </si>
+  <si>
+    <t>$0.53 for 10 (min is 10): 2600 in stock</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Motion-Sensors-Accelerometers_Analog-Devices_ADXL327BCPZ-RL7_Analog-Devices-ADI-LINEAR-ADXL327BCPZ-RL7_C207396.html</t>
+  </si>
+  <si>
+    <t>C207396</t>
+  </si>
+  <si>
+    <t>ADXL327BCPZ-RL7</t>
+  </si>
+  <si>
+    <t>$3.45 - 0 in stock available by digikey</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/I-O-Expansion_NXP_PCF8574T-3-518_PCF8574T-3-518_C7605.html</t>
+  </si>
+  <si>
+    <t>C7605</t>
+  </si>
+  <si>
+    <t>NXP Semicon</t>
+  </si>
+  <si>
+    <t>$0.87: 2254 in stock</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Precision-Potentiometer_BOCHEN-Chengdu-Guosheng-Tech-3362P-1-103_C118956.html</t>
+  </si>
+  <si>
+    <t>C118956</t>
+  </si>
+  <si>
+    <t>BOCHEN(Chengdu Guosheng Tech)</t>
+  </si>
+  <si>
+    <t>3362P-1-103</t>
+  </si>
+  <si>
+    <t>$0.71 for 5 (min is 5):28600 in stock</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Precision-Potentiometer_BOCHEN-Chengdu-Guosheng-Tech-3362P-1-502_C118903.html</t>
+  </si>
+  <si>
+    <t>C118903</t>
+  </si>
+  <si>
+    <t>3362P-1-502</t>
+  </si>
+  <si>
+    <t>$0.52 for 5 (min is 5):13910 in stock</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_Microchip-Tech-MCP73833T-AMI-MF_C340160.html</t>
+  </si>
+  <si>
+    <t>C340160</t>
+  </si>
+  <si>
+    <t>MCP73833T-AMI/MF</t>
+  </si>
+  <si>
+    <t>Microchip Tech</t>
+  </si>
+  <si>
+    <t>$0.99-89 in stock</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/LCD-Displays-Modules_LCM1602K-NSW-BBW_C83275.html</t>
+  </si>
+  <si>
+    <t>C83275</t>
+  </si>
+  <si>
+    <t>Longtech Optics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 	LCM1602K-NSW-BBW</t>
+  </si>
+  <si>
+    <t>$3.45: 78 in stock</t>
+  </si>
+  <si>
+    <t>found on digikey</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_TDK_NTCG103JF103FT1_TDK-NTCG103JF103FT1_C209959.html</t>
+  </si>
+  <si>
+    <t>C209959</t>
+  </si>
+  <si>
+    <t>NTCG103JF103FT1</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>$0.68 for 50 (min is 50): 57850 in stock</t>
+  </si>
+  <si>
+    <t>they had overly advanced switches on LCSC --&gt; found on digikey more simple &amp; less $$</t>
+  </si>
+  <si>
+    <t>Red, Yellow, Green</t>
+  </si>
+  <si>
+    <t>LCD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
@@ -876,7 +1014,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1062,6 +1200,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1239,7 +1389,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1292,6 +1442,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1647,11 +1809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,35 +1823,39 @@
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="7" width="37.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="32.28515625" customWidth="1"/>
-    <col min="19" max="19" width="36.5703125" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" customWidth="1"/>
-    <col min="21" max="21" width="24" customWidth="1"/>
-    <col min="22" max="22" width="30.42578125" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" customWidth="1"/>
-    <col min="30" max="30" width="9.85546875" customWidth="1"/>
-    <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="83.42578125" customWidth="1"/>
+    <col min="8" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="61.28515625" customWidth="1"/>
+    <col min="13" max="13" width="37.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="32.28515625" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" customWidth="1"/>
+    <col min="27" max="27" width="24" customWidth="1"/>
+    <col min="28" max="28" width="30.42578125" customWidth="1"/>
+    <col min="29" max="29" width="24.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" customWidth="1"/>
+    <col min="32" max="32" width="13.85546875" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1"/>
+    <col min="35" max="35" width="8.5703125" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" customWidth="1"/>
+    <col min="37" max="37" width="11" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1709,88 +1875,104 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="W1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>3</v>
       </c>
@@ -1807,47 +1989,55 @@
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>205</v>
+      <c r="G2" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="AG2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1865,12 +2055,12 @@
         <v>37</v>
       </c>
       <c r="G3" s="11"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1891,12 +2081,18 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1911,53 +2107,59 @@
       <c r="F4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>206</v>
-      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="17"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" s="3"/>
+      <c r="M4" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+      <c r="AG4" s="3">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1972,49 +2174,55 @@
       <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>207</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="M5" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3">
-        <v>85</v>
-      </c>
-      <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
+      <c r="AG5" s="3">
+        <v>85</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2034,46 +2242,62 @@
         <v>53</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="M6" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -2093,50 +2317,66 @@
         <v>57</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+        <v>246</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="M7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
+      <c r="AG7" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2151,49 +2391,55 @@
       <c r="F8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>210</v>
-      </c>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="M8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="AG8" s="3">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -2212,55 +2458,71 @@
       <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="M9" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3">
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3">
         <v>19</v>
       </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2275,53 +2537,59 @@
       <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>212</v>
-      </c>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="M10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S10" s="3" t="s">
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3">
-        <v>85</v>
-      </c>
-      <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-      <c r="AD10" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
+      <c r="AG10" s="3">
+        <v>85</v>
+      </c>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2337,52 +2605,58 @@
         <v>42</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="17" t="s">
-        <v>213</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>129</v>
+      <c r="N11" s="17" t="s">
+        <v>212</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="3">
-        <v>52</v>
-      </c>
-      <c r="AB11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="AG11" s="3">
+        <v>52</v>
+      </c>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="23">
         <v>330</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2397,53 +2671,59 @@
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>214</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="M12" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3">
-        <v>85</v>
-      </c>
-      <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
+      <c r="AG12" s="3">
+        <v>85</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2458,53 +2738,59 @@
       <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>215</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="M13" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3">
-        <v>85</v>
-      </c>
-      <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="AG13" s="3">
+        <v>85</v>
+      </c>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="23">
         <v>470</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2519,49 +2805,55 @@
       <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>216</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="M14" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3">
-        <v>85</v>
-      </c>
-      <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
+      <c r="AG14" s="3">
+        <v>85</v>
+      </c>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2581,48 +2873,64 @@
         <v>57</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="M15" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" s="3" t="s">
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
+      <c r="AG15" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2642,46 +2950,62 @@
         <v>76</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="M16" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+      <c r="AB16" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -2697,46 +3021,64 @@
       <c r="E17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="G17" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="17" t="s">
+        <v>218</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3" t="s">
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB17" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -2756,56 +3098,72 @@
         <v>85</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="3" t="s">
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>147</v>
       </c>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="X18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="AA18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -2827,62 +3185,68 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3" t="s">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="X19" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3" t="s">
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AI19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3" t="s">
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AL19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AG19" s="3" t="s">
+      <c r="AM19" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -2902,54 +3266,70 @@
         <v>110</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+        <v>242</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>245</v>
+      </c>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="M20" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="Y20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AD20" s="3">
         <v>1201255</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="AE20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3">
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3">
         <v>3</v>
       </c>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -2958,47 +3338,53 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="T21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="X21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>4</v>
       </c>
@@ -3007,47 +3393,53 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="T22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="X22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>4</v>
       </c>
@@ -3056,49 +3448,55 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y23" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+      <c r="AB23" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>113</v>
@@ -3110,18 +3508,18 @@
         <v>113</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="16"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3135,40 +3533,46 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
+      <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>6</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="G25" s="11"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -3182,40 +3586,46 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
-      <c r="AA25" s="3">
-        <v>61</v>
-      </c>
+      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="AG25" s="3">
+        <v>61</v>
+      </c>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="E26" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G26" s="11"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3229,89 +3639,115 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>1</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="3" t="s">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="Y27" s="3">
         <v>783</v>
       </c>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
+      <c r="AB27" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>1</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -3332,33 +3768,47 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G5" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="H11" r:id="rId9"/>
-    <hyperlink ref="G12" r:id="rId10"/>
-    <hyperlink ref="G13" r:id="rId11"/>
-    <hyperlink ref="G14" r:id="rId12"/>
-    <hyperlink ref="G15" r:id="rId13"/>
-    <hyperlink ref="G16" r:id="rId14"/>
-    <hyperlink ref="G17" r:id="rId15"/>
-    <hyperlink ref="G18" r:id="rId16"/>
-    <hyperlink ref="G20" r:id="rId17"/>
-    <hyperlink ref="G21" r:id="rId18"/>
-    <hyperlink ref="G22" r:id="rId19"/>
-    <hyperlink ref="G23" r:id="rId20"/>
-    <hyperlink ref="G27" r:id="rId21"/>
-    <hyperlink ref="G28" r:id="rId22"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M27" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G28" r:id="rId23" xr:uid="{1686CC5B-D6C3-48FE-BCD7-D1E5115DB20D}"/>
+    <hyperlink ref="G16" r:id="rId24" xr:uid="{3B0F3DC0-CC23-4A39-BA7A-88C02B3BC1F5}"/>
+    <hyperlink ref="G20" r:id="rId25" xr:uid="{4BF8051E-65CA-4D4C-920E-2A3DBB4F0B5F}"/>
+    <hyperlink ref="G7" r:id="rId26" xr:uid="{CFFFD6A3-F9B4-49FC-BE80-A53B1284C6D8}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{B7ED4992-1402-4C01-8A3A-788CDDE4E834}"/>
+    <hyperlink ref="G18" r:id="rId28" xr:uid="{7D40E8F3-303E-4A98-9D4D-E573E36E6415}"/>
+    <hyperlink ref="G17" r:id="rId29" xr:uid="{225BCDAD-D043-4FFB-A81C-6637EB0C1C48}"/>
+    <hyperlink ref="G6" r:id="rId30" xr:uid="{B7AC2888-FAEA-4635-8931-07CBDCD21C26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId23"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId31"/>
 </worksheet>
 </file>